--- a/Data/F022.TBTU.STO.Z.Z.UF.D.xlsx
+++ b/Data/F022.TBTU.STO.Z.Z.UF.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5827"/>
+  <dimension ref="A1:C5828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99425,6 +99425,23 @@
         </is>
       </c>
     </row>
+    <row r="5828">
+      <c r="A5828" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B5828" t="inlineStr">
+        <is>
+          <t>5472590</t>
+        </is>
+      </c>
+      <c r="C5828" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.TBTU.STO.Z.Z.UF.D.xlsx
+++ b/Data/F022.TBTU.STO.Z.Z.UF.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5828"/>
+  <dimension ref="A1:C5830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99442,6 +99442,40 @@
         </is>
       </c>
     </row>
+    <row r="5829">
+      <c r="A5829" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B5829" t="inlineStr">
+        <is>
+          <t>5474764</t>
+        </is>
+      </c>
+      <c r="C5829" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5830">
+      <c r="A5830" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B5830" t="inlineStr">
+        <is>
+          <t>5473558</t>
+        </is>
+      </c>
+      <c r="C5830" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.TBTU.STO.Z.Z.UF.D.xlsx
+++ b/Data/F022.TBTU.STO.Z.Z.UF.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5830"/>
+  <dimension ref="A1:C5833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99476,6 +99476,57 @@
         </is>
       </c>
     </row>
+    <row r="5831">
+      <c r="A5831" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B5831" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C5831" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5832">
+      <c r="A5832" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B5832" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C5832" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5833">
+      <c r="A5833" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B5833" t="inlineStr">
+        <is>
+          <t>5472508</t>
+        </is>
+      </c>
+      <c r="C5833" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
